--- a/assets/testing/GOLtesting.xlsx
+++ b/assets/testing/GOLtesting.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>Table 1</t>
   </si>
@@ -613,6 +613,92 @@
   </si>
   <si>
     <t>The icon is clearly visible, responds to click and opens up a clearly layer out modal with the instructions on how to play the game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The website performs as required as outlined in User Stories for External users and the site owner. -
+ 1. As a site owner I want to present a clean and engaging experience to the user.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This goal was assessed through user testing. </t>
+  </si>
+  <si>
+    <t>Users should find the site pleasant to use and be engaged by the simulation.</t>
+  </si>
+  <si>
+    <t>Users found the site pleasant to use and were engaged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The website performs as required as outlined in User Stories for External users and the site owner. - 
+2. As a site owner I would like the user to interact easily with the site. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This goal was assessed through user testing. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user should easily be able to access all the functionality of the website with no external help. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The users found the website easy to use and were able to find any information they needed on functionality. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The website performs as required as outlined in User Stories for External users and the site owner. -
+3. As a site owner I would like the user to return to the website and/or share it.
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">This goal is hard to assess but by making it as engaging and pleasant an experience as possible I would hope that the users would want to return or share it on their Social Media.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Open GitHub pages live link in browser for the Game of Life website.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Click on the Facebook icon in footer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Check to see link opens in Facebook share screen.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Repeat steps 2 and 3 for the Twitter link. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Clicking on either button should redirect the user to the share screen of the chosen site. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the click on the link the are directed to Facebook or Twitter. </t>
   </si>
   <si>
     <t>Clicking the clear button resets the generation counter and clears the canvas</t>
@@ -2502,7 +2588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G25"/>
+  <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -2765,7 +2851,7 @@
     </row>
     <row r="13" ht="80.35" customHeight="1">
       <c r="A13" s="9">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="B13" t="s" s="10">
         <v>43</v>
@@ -2786,7 +2872,7 @@
     </row>
     <row r="14" ht="80.35" customHeight="1">
       <c r="A14" s="9">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="B14" t="s" s="10">
         <v>47</v>
@@ -2805,9 +2891,9 @@
       </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" ht="68.35" customHeight="1">
+    <row r="15" ht="80.35" customHeight="1">
       <c r="A15" s="9">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="B15" t="s" s="10">
         <v>51</v>
@@ -2815,20 +2901,20 @@
       <c r="C15" t="s" s="11">
         <v>52</v>
       </c>
-      <c r="D15" t="s" s="11">
+      <c r="D15" t="s" s="14">
         <v>53</v>
       </c>
-      <c r="E15" t="s" s="11">
+      <c r="E15" t="s" s="14">
         <v>54</v>
       </c>
-      <c r="F15" t="s" s="11">
+      <c r="F15" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="15"/>
     </row>
-    <row r="16" ht="68.35" customHeight="1">
+    <row r="16" ht="80.35" customHeight="1">
       <c r="A16" s="9">
-        <v>9.1</v>
+        <v>7.5</v>
       </c>
       <c r="B16" t="s" s="10">
         <v>55</v>
@@ -2836,20 +2922,20 @@
       <c r="C16" t="s" s="11">
         <v>56</v>
       </c>
-      <c r="D16" t="s" s="11">
+      <c r="D16" t="s" s="14">
         <v>57</v>
       </c>
-      <c r="E16" t="s" s="11">
+      <c r="E16" t="s" s="14">
         <v>58</v>
       </c>
-      <c r="F16" t="s" s="11">
+      <c r="F16" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="G16" s="12"/>
+      <c r="G16" s="15"/>
     </row>
-    <row r="17" ht="68.35" customHeight="1">
+    <row r="17" ht="116.35" customHeight="1">
       <c r="A17" s="9">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="B17" t="s" s="10">
         <v>59</v>
@@ -2857,20 +2943,20 @@
       <c r="C17" t="s" s="11">
         <v>60</v>
       </c>
-      <c r="D17" t="s" s="11">
+      <c r="D17" t="s" s="14">
         <v>61</v>
       </c>
-      <c r="E17" t="s" s="11">
+      <c r="E17" t="s" s="14">
         <v>62</v>
       </c>
-      <c r="F17" t="s" s="11">
+      <c r="F17" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="15"/>
     </row>
-    <row r="18" ht="56.35" customHeight="1">
+    <row r="18" ht="68.35" customHeight="1">
       <c r="A18" s="9">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s" s="10">
         <v>63</v>
@@ -2891,7 +2977,7 @@
     </row>
     <row r="19" ht="68.35" customHeight="1">
       <c r="A19" s="9">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="B19" t="s" s="10">
         <v>67</v>
@@ -2910,9 +2996,9 @@
       </c>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" ht="92.35" customHeight="1">
+    <row r="20" ht="68.35" customHeight="1">
       <c r="A20" s="9">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="B20" t="s" s="10">
         <v>71</v>
@@ -2931,9 +3017,9 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" ht="152.35" customHeight="1">
+    <row r="21" ht="56.35" customHeight="1">
       <c r="A21" s="9">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="B21" t="s" s="10">
         <v>75</v>
@@ -2954,7 +3040,7 @@
     </row>
     <row r="22" ht="68.35" customHeight="1">
       <c r="A22" s="9">
-        <v>10.1</v>
+        <v>9.4</v>
       </c>
       <c r="B22" t="s" s="10">
         <v>79</v>
@@ -2973,9 +3059,9 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" ht="80.35" customHeight="1">
+    <row r="23" ht="92.35" customHeight="1">
       <c r="A23" s="9">
-        <v>10.2</v>
+        <v>9.5</v>
       </c>
       <c r="B23" t="s" s="10">
         <v>83</v>
@@ -2994,11 +3080,11 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" ht="68.35" customHeight="1">
+    <row r="24" ht="152.35" customHeight="1">
       <c r="A24" s="9">
-        <v>10.3</v>
-      </c>
-      <c r="B24" t="s" s="13">
+        <v>9.6</v>
+      </c>
+      <c r="B24" t="s" s="10">
         <v>87</v>
       </c>
       <c r="C24" t="s" s="11">
@@ -3017,9 +3103,9 @@
     </row>
     <row r="25" ht="68.35" customHeight="1">
       <c r="A25" s="9">
-        <v>10.4</v>
-      </c>
-      <c r="B25" t="s" s="13">
+        <v>10.1</v>
+      </c>
+      <c r="B25" t="s" s="10">
         <v>91</v>
       </c>
       <c r="C25" t="s" s="11">
@@ -3035,6 +3121,69 @@
         <v>13</v>
       </c>
       <c r="G25" s="12"/>
+    </row>
+    <row r="26" ht="80.35" customHeight="1">
+      <c r="A26" s="9">
+        <v>10.2</v>
+      </c>
+      <c r="B26" t="s" s="10">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s" s="11">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s" s="11">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s" s="11">
+        <v>98</v>
+      </c>
+      <c r="F26" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" ht="68.35" customHeight="1">
+      <c r="A27" s="9">
+        <v>10.3</v>
+      </c>
+      <c r="B27" t="s" s="13">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s" s="11">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s" s="11">
+        <v>101</v>
+      </c>
+      <c r="E27" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="F27" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" ht="68.35" customHeight="1">
+      <c r="A28" s="9">
+        <v>10.4</v>
+      </c>
+      <c r="B28" t="s" s="13">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s" s="11">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s" s="11">
+        <v>105</v>
+      </c>
+      <c r="E28" t="s" s="11">
+        <v>106</v>
+      </c>
+      <c r="F28" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="G28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/assets/testing/GOLtesting.xlsx
+++ b/assets/testing/GOLtesting.xlsx
@@ -2893,7 +2893,7 @@
     </row>
     <row r="15" ht="80.35" customHeight="1">
       <c r="A15" s="9">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="B15" t="s" s="10">
         <v>51</v>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="16" ht="80.35" customHeight="1">
       <c r="A16" s="9">
-        <v>7.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="B16" t="s" s="10">
         <v>55</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="17" ht="116.35" customHeight="1">
       <c r="A17" s="9">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="B17" t="s" s="10">
         <v>59</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="18" ht="68.35" customHeight="1">
       <c r="A18" s="9">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="B18" t="s" s="10">
         <v>63</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="19" ht="68.35" customHeight="1">
       <c r="A19" s="9">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="B19" t="s" s="10">
         <v>67</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="20" ht="68.35" customHeight="1">
       <c r="A20" s="9">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="B20" t="s" s="10">
         <v>71</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="21" ht="56.35" customHeight="1">
       <c r="A21" s="9">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="B21" t="s" s="10">
         <v>75</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="22" ht="68.35" customHeight="1">
       <c r="A22" s="9">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="B22" t="s" s="10">
         <v>79</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="23" ht="92.35" customHeight="1">
       <c r="A23" s="9">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="B23" t="s" s="10">
         <v>83</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="24" ht="152.35" customHeight="1">
       <c r="A24" s="9">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="B24" t="s" s="10">
         <v>87</v>
